--- a/files/new_ones/sample.xlsx
+++ b/files/new_ones/sample.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmogi\Projects\published_apps\mc-exam-randomizer\lib\files\new_ones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B4CF46-7E19-4605-B0D3-C08247635DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B40E6-470F-4908-BBDC-9707FC23A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CC3AEC73-5C23-4515-B38D-2E3ACAD7CB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CC3AEC73-5C23-4515-B38D-2E3ACAD7CB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="14">
   <si>
     <t>Answer 1</t>
   </si>
@@ -67,16 +69,43 @@
   </si>
   <si>
     <t>Question, 2 text goes here</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option4</t>
+  </si>
+  <si>
+    <t>option5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,59 +447,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE2EBD-52F6-494A-ADB2-8A56CB5F573B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572E6DE7-E87D-46C9-A814-C3912C873AAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14F5F1-76BB-4CBF-8447-30E14E2189A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
